--- a/trunk/documentation/standards/directory-layout/java-directory-layout.xlsx
+++ b/trunk/documentation/standards/directory-layout/java-directory-layout.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="121">
   <si>
     <t>Level 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,22 @@
   </si>
   <si>
     <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -538,8 +554,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -552,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -565,11 +598,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1610,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1626,10 +1662,10 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>116</v>
       </c>
@@ -1648,11 +1684,15 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>110</v>
       </c>
@@ -1696,10 +1736,14 @@
         <v>105</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -1726,11 +1770,13 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -1758,8 +1804,12 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1787,8 +1837,10 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
@@ -1816,8 +1868,10 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -1845,8 +1899,10 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
@@ -1874,8 +1930,10 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
@@ -1903,8 +1961,10 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1932,8 +1992,10 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1961,8 +2023,10 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1986,8 +2050,10 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2011,8 +2077,10 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>112</v>
@@ -2038,8 +2106,10 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2063,8 +2133,10 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>112</v>
@@ -2090,11 +2162,15 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
